--- a/script_DNRPA/registroMoto.xlsx
+++ b/script_DNRPA/registroMoto.xlsx
@@ -535,962 +535,962 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>41640</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>21452</v>
+        <v>15350</v>
       </c>
       <c r="C2" t="n">
-        <v>2333</v>
+        <v>1960</v>
       </c>
       <c r="D2" t="n">
-        <v>981</v>
+        <v>363</v>
       </c>
       <c r="E2" t="n">
-        <v>7494</v>
+        <v>4320</v>
       </c>
       <c r="F2" t="n">
-        <v>2760</v>
+        <v>1080</v>
       </c>
       <c r="G2" t="n">
-        <v>4029</v>
+        <v>2004</v>
       </c>
       <c r="H2" t="n">
-        <v>393</v>
+        <v>258</v>
       </c>
       <c r="I2" t="n">
-        <v>2896</v>
+        <v>1390</v>
       </c>
       <c r="J2" t="n">
-        <v>1869</v>
+        <v>906</v>
       </c>
       <c r="K2" t="n">
-        <v>1153</v>
+        <v>497</v>
       </c>
       <c r="L2" t="n">
-        <v>897</v>
+        <v>435</v>
       </c>
       <c r="M2" t="n">
-        <v>1229</v>
+        <v>398</v>
       </c>
       <c r="N2" t="n">
-        <v>2922</v>
+        <v>1195</v>
       </c>
       <c r="O2" t="n">
-        <v>2648</v>
+        <v>1128</v>
       </c>
       <c r="P2" t="n">
-        <v>976</v>
+        <v>494</v>
       </c>
       <c r="Q2" t="n">
-        <v>1071</v>
+        <v>518</v>
       </c>
       <c r="R2" t="n">
-        <v>2178</v>
+        <v>1481</v>
       </c>
       <c r="S2" t="n">
-        <v>1018</v>
+        <v>521</v>
       </c>
       <c r="T2" t="n">
-        <v>1117</v>
+        <v>587</v>
       </c>
       <c r="U2" t="n">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="V2" t="n">
-        <v>7169</v>
+        <v>4801</v>
       </c>
       <c r="W2" t="n">
-        <v>1669</v>
+        <v>1136</v>
       </c>
       <c r="X2" t="n">
-        <v>3616</v>
+        <v>1839</v>
       </c>
       <c r="Y2" t="n">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="Z2" t="n">
-        <v>72174</v>
+        <v>42824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>41671</v>
+        <v>44958</v>
       </c>
       <c r="B3" t="n">
-        <v>10639</v>
+        <v>12584</v>
       </c>
       <c r="C3" t="n">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="D3" t="n">
-        <v>582</v>
+        <v>405</v>
       </c>
       <c r="E3" t="n">
-        <v>4537</v>
+        <v>3551</v>
       </c>
       <c r="F3" t="n">
-        <v>2002</v>
+        <v>1161</v>
       </c>
       <c r="G3" t="n">
-        <v>2535</v>
+        <v>1812</v>
       </c>
       <c r="H3" t="n">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="I3" t="n">
-        <v>1688</v>
+        <v>1166</v>
       </c>
       <c r="J3" t="n">
-        <v>1280</v>
+        <v>816</v>
       </c>
       <c r="K3" t="n">
-        <v>774</v>
+        <v>521</v>
       </c>
       <c r="L3" t="n">
-        <v>457</v>
+        <v>332</v>
       </c>
       <c r="M3" t="n">
-        <v>647</v>
+        <v>496</v>
       </c>
       <c r="N3" t="n">
-        <v>1728</v>
+        <v>1072</v>
       </c>
       <c r="O3" t="n">
-        <v>1302</v>
+        <v>1162</v>
       </c>
       <c r="P3" t="n">
-        <v>517</v>
+        <v>406</v>
       </c>
       <c r="Q3" t="n">
-        <v>644</v>
+        <v>509</v>
       </c>
       <c r="R3" t="n">
-        <v>1638</v>
+        <v>1293</v>
       </c>
       <c r="S3" t="n">
-        <v>589</v>
+        <v>475</v>
       </c>
       <c r="T3" t="n">
-        <v>738</v>
+        <v>531</v>
       </c>
       <c r="U3" t="n">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="V3" t="n">
-        <v>3950</v>
+        <v>3998</v>
       </c>
       <c r="W3" t="n">
-        <v>1495</v>
+        <v>996</v>
       </c>
       <c r="X3" t="n">
-        <v>2348</v>
+        <v>1597</v>
       </c>
       <c r="Y3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z3" t="n">
-        <v>41976</v>
+        <v>36643</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>41699</v>
+        <v>44986</v>
       </c>
       <c r="B4" t="n">
-        <v>9163</v>
+        <v>16141</v>
       </c>
       <c r="C4" t="n">
-        <v>1289</v>
+        <v>1852</v>
       </c>
       <c r="D4" t="n">
-        <v>522</v>
+        <v>827</v>
       </c>
       <c r="E4" t="n">
-        <v>3688</v>
+        <v>4705</v>
       </c>
       <c r="F4" t="n">
-        <v>1768</v>
+        <v>1616</v>
       </c>
       <c r="G4" t="n">
-        <v>2309</v>
+        <v>2734</v>
       </c>
       <c r="H4" t="n">
-        <v>170</v>
+        <v>322</v>
       </c>
       <c r="I4" t="n">
-        <v>1508</v>
+        <v>1710</v>
       </c>
       <c r="J4" t="n">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="K4" t="n">
-        <v>639</v>
+        <v>920</v>
       </c>
       <c r="L4" t="n">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="M4" t="n">
-        <v>609</v>
+        <v>729</v>
       </c>
       <c r="N4" t="n">
-        <v>1230</v>
+        <v>1607</v>
       </c>
       <c r="O4" t="n">
-        <v>1125</v>
+        <v>1427</v>
       </c>
       <c r="P4" t="n">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="Q4" t="n">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="R4" t="n">
-        <v>1301</v>
+        <v>1980</v>
       </c>
       <c r="S4" t="n">
-        <v>486</v>
+        <v>698</v>
       </c>
       <c r="T4" t="n">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="U4" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="V4" t="n">
-        <v>3031</v>
+        <v>4956</v>
       </c>
       <c r="W4" t="n">
-        <v>1510</v>
+        <v>1648</v>
       </c>
       <c r="X4" t="n">
-        <v>1665</v>
+        <v>2184</v>
       </c>
       <c r="Y4" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Z4" t="n">
-        <v>35348</v>
+        <v>49664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>41730</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>9128</v>
+        <v>13095</v>
       </c>
       <c r="C5" t="n">
-        <v>1380</v>
+        <v>1765</v>
       </c>
       <c r="D5" t="n">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="E5" t="n">
-        <v>3416</v>
+        <v>3750</v>
       </c>
       <c r="F5" t="n">
-        <v>1683</v>
+        <v>1333</v>
       </c>
       <c r="G5" t="n">
-        <v>2326</v>
+        <v>2383</v>
       </c>
       <c r="H5" t="n">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="I5" t="n">
-        <v>1402</v>
+        <v>1289</v>
       </c>
       <c r="J5" t="n">
-        <v>1052</v>
+        <v>930</v>
       </c>
       <c r="K5" t="n">
+        <v>616</v>
+      </c>
+      <c r="L5" t="n">
+        <v>304</v>
+      </c>
+      <c r="M5" t="n">
+        <v>647</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1205</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1220</v>
+      </c>
+      <c r="P5" t="n">
+        <v>440</v>
+      </c>
+      <c r="Q5" t="n">
         <v>536</v>
       </c>
-      <c r="L5" t="n">
-        <v>330</v>
-      </c>
-      <c r="M5" t="n">
-        <v>662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1234</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1318</v>
-      </c>
-      <c r="P5" t="n">
-        <v>345</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>484</v>
-      </c>
       <c r="R5" t="n">
-        <v>1352</v>
+        <v>1780</v>
       </c>
       <c r="S5" t="n">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="T5" t="n">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="U5" t="n">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="V5" t="n">
-        <v>3138</v>
+        <v>4137</v>
       </c>
       <c r="W5" t="n">
-        <v>2142</v>
+        <v>1158</v>
       </c>
       <c r="X5" t="n">
-        <v>1875</v>
+        <v>2157</v>
       </c>
       <c r="Y5" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="n">
-        <v>35649</v>
+        <v>40889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>41760</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>8520</v>
+        <v>12490</v>
       </c>
       <c r="C6" t="n">
-        <v>1309</v>
+        <v>1995</v>
       </c>
       <c r="D6" t="n">
-        <v>654</v>
+        <v>593</v>
       </c>
       <c r="E6" t="n">
-        <v>3196</v>
+        <v>3827</v>
       </c>
       <c r="F6" t="n">
-        <v>1650</v>
+        <v>1217</v>
       </c>
       <c r="G6" t="n">
-        <v>2411</v>
+        <v>2423</v>
       </c>
       <c r="H6" t="n">
-        <v>116</v>
+        <v>312</v>
       </c>
       <c r="I6" t="n">
-        <v>1383</v>
+        <v>1281</v>
       </c>
       <c r="J6" t="n">
-        <v>1149</v>
+        <v>1070</v>
       </c>
       <c r="K6" t="n">
-        <v>523</v>
+        <v>765</v>
       </c>
       <c r="L6" t="n">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="M6" t="n">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="N6" t="n">
-        <v>1219</v>
+        <v>1155</v>
       </c>
       <c r="O6" t="n">
-        <v>1444</v>
+        <v>1057</v>
       </c>
       <c r="P6" t="n">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="Q6" t="n">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="R6" t="n">
-        <v>1210</v>
+        <v>1750</v>
       </c>
       <c r="S6" t="n">
-        <v>522</v>
+        <v>776</v>
       </c>
       <c r="T6" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="U6" t="n">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="V6" t="n">
-        <v>3296</v>
+        <v>4284</v>
       </c>
       <c r="W6" t="n">
-        <v>1885</v>
+        <v>1388</v>
       </c>
       <c r="X6" t="n">
-        <v>1829</v>
+        <v>2098</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="n">
-        <v>34714</v>
+        <v>41051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>41791</v>
+        <v>45078</v>
       </c>
       <c r="B7" t="n">
-        <v>7512</v>
+        <v>10677</v>
       </c>
       <c r="C7" t="n">
-        <v>1237</v>
+        <v>1644</v>
       </c>
       <c r="D7" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E7" t="n">
-        <v>3055</v>
+        <v>3070</v>
       </c>
       <c r="F7" t="n">
-        <v>1466</v>
+        <v>1224</v>
       </c>
       <c r="G7" t="n">
-        <v>2397</v>
+        <v>2177</v>
       </c>
       <c r="H7" t="n">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="I7" t="n">
-        <v>1226</v>
+        <v>966</v>
       </c>
       <c r="J7" t="n">
-        <v>1043</v>
+        <v>930</v>
       </c>
       <c r="K7" t="n">
-        <v>405</v>
+        <v>778</v>
       </c>
       <c r="L7" t="n">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="M7" t="n">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="N7" t="n">
-        <v>1129</v>
+        <v>885</v>
       </c>
       <c r="O7" t="n">
-        <v>1338</v>
+        <v>1002</v>
       </c>
       <c r="P7" t="n">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="Q7" t="n">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="R7" t="n">
-        <v>1350</v>
+        <v>1597</v>
       </c>
       <c r="S7" t="n">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="T7" t="n">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="U7" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="V7" t="n">
-        <v>2960</v>
+        <v>3290</v>
       </c>
       <c r="W7" t="n">
-        <v>1531</v>
+        <v>1149</v>
       </c>
       <c r="X7" t="n">
-        <v>1651</v>
+        <v>1911</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="n">
-        <v>31612</v>
+        <v>34563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>41821</v>
+        <v>45108</v>
       </c>
       <c r="B8" t="n">
-        <v>9777</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1546</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3570</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3036</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1372</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1262</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>811</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1626</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>427</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1485</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>501</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3801</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1758</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>2230</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>38828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>41852</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="n">
-        <v>10693</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3461</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2741</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1445</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1492</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4006</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1446</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>2360</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>40333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>41883</v>
+        <v>45170</v>
       </c>
       <c r="B10" t="n">
-        <v>12324</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1871</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4045</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1688</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3257</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>899</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1776</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1816</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1787</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4513</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1645</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2307</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>46189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>41913</v>
+        <v>45200</v>
       </c>
       <c r="B11" t="n">
-        <v>11948</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1732</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2925</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1725</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1780</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>4154</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1420</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2517</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>44282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>41944</v>
+        <v>45231</v>
       </c>
       <c r="B12" t="n">
-        <v>9128</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1391</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>2950</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1985</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1353</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>623</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1007</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1591</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>3122</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1321</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>33299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41974</v>
+        <v>45261</v>
       </c>
       <c r="B13" t="n">
-        <v>8899</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1258</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2777</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1130</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2197</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>979</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1303</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>428</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2993</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1431</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>31687</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
